--- a/tabel design.xlsx
+++ b/tabel design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="14400" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -139,6 +139,18 @@
     <t>healthy_temp</t>
   </si>
   <si>
+    <t>dishes_type</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>type_name</t>
+  </si>
+  <si>
+    <t>descritpion</t>
+  </si>
+  <si>
     <t>dishes</t>
   </si>
   <si>
@@ -151,10 +163,7 @@
     <t>price</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>component</t>
+    <t>ingredient</t>
   </si>
   <si>
     <t>tag</t>
@@ -185,15 +194,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -207,9 +216,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,23 +253,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,7 +278,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,25 +308,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,29 +337,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -338,19 +347,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,73 +449,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,85 +509,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +538,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,80 +632,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -637,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,8 +1116,8 @@
   <sheetPr/>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1317,48 +1326,64 @@
         <v>5</v>
       </c>
     </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
         <v>42</v>
       </c>
-      <c r="B49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" t="s">
-        <v>45</v>
-      </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
